--- a/发票测试.xlsx
+++ b/发票测试.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21500" windowHeight="10360"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21500" windowHeight="10360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,36 +29,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>发票代码</t>
-  </si>
-  <si>
-    <t>发票号码</t>
-  </si>
-  <si>
-    <t>06464613</t>
-  </si>
-  <si>
-    <t>06464618</t>
-  </si>
-  <si>
-    <t>06464620</t>
-  </si>
-  <si>
-    <t>06464640</t>
-  </si>
-  <si>
-    <t>06464641</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>开票日期</t>
   </si>
   <si>
-    <t>开具金额（不含税）</t>
+    <t>发票代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>06464606</t>
+    <t>发票号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开具金额（不含税）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,9 +50,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,27 +73,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -121,24 +87,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,110 +395,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="7" width="11.5" style="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
-        <v>3100164130</v>
-      </c>
-      <c r="C1" s="3">
-        <v>3100164130</v>
-      </c>
-      <c r="D1" s="3">
-        <v>3100164130</v>
-      </c>
-      <c r="E1" s="3">
-        <v>3100164130</v>
-      </c>
-      <c r="F1" s="3">
-        <v>3100164130</v>
-      </c>
-      <c r="G1" s="3">
-        <v>3100164130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
-        <v>42900</v>
-      </c>
-      <c r="C3" s="4">
-        <v>42900</v>
-      </c>
-      <c r="D3" s="4">
-        <v>42900</v>
-      </c>
-      <c r="E3" s="4">
-        <v>42900</v>
-      </c>
-      <c r="F3" s="4">
-        <v>42901</v>
-      </c>
-      <c r="G3" s="4">
-        <v>42901</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>12559.79</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1966.84</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2350.9</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3654.67</v>
-      </c>
-      <c r="F4" s="3">
-        <v>6332.68</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1375.43</v>
-      </c>
-    </row>
+    <row r="1" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -554,12 +416,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>3100164130</v>
+      </c>
+      <c r="B2">
+        <v>6464606</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42900</v>
+      </c>
+      <c r="D2">
+        <v>12559.79</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
